--- a/Subject Allocations.xlsx
+++ b/Subject Allocations.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Whole Staff" sheetId="1" r:id="rId1"/>
+    <sheet name="All Staff" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="484">
   <si>
     <t>2022 Teaching Staff Sem 2</t>
   </si>
   <si>
-    <t>30/06/2022 12:36:17</t>
+    <t>30/06/2022 13:49:51</t>
   </si>
   <si>
     <t>M - 6 4 3 PD 5</t>
@@ -181,6 +181,9 @@
     <t>English</t>
   </si>
   <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
     <t>Mel</t>
   </si>
   <si>
@@ -313,6 +316,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>SC4</t>
+  </si>
+  <si>
     <t>Art</t>
   </si>
   <si>
@@ -355,7 +361,7 @@
     <t>M7</t>
   </si>
   <si>
-    <t>Mathematics</t>
+    <t>SC2</t>
   </si>
   <si>
     <t>SU3</t>
@@ -511,12 +517,6 @@
     <t>M4</t>
   </si>
   <si>
-    <t>SC2</t>
-  </si>
-  <si>
-    <t>SC4</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -1120,6 +1120,9 @@
     <t>Art (Music)</t>
   </si>
   <si>
+    <t>Language and Culture</t>
+  </si>
+  <si>
     <t>Sarah</t>
   </si>
   <si>
@@ -1279,6 +1282,9 @@
     <t>SANM</t>
   </si>
   <si>
+    <t>Food Technology</t>
+  </si>
+  <si>
     <t>Roopali</t>
   </si>
   <si>
@@ -1376,6 +1382,9 @@
   </si>
   <si>
     <t>M9</t>
+  </si>
+  <si>
+    <t>Cross Disc</t>
   </si>
   <si>
     <t>SWDRP</t>
@@ -2183,13 +2192,10 @@
         <v>51</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2209,13 +2215,10 @@
         <v>52</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="14" t="s">
         <v>54</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2237,27 +2240,24 @@
       <c r="G18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="J18" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>38</v>
@@ -2266,12 +2266,12 @@
         <v>54</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>8</v>
@@ -2280,17 +2280,17 @@
         <v>21</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>22</v>
@@ -2298,21 +2298,21 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>33</v>
@@ -2323,47 +2323,47 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>41</v>
@@ -2372,7 +2372,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>22</v>
@@ -2383,53 +2383,53 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>20</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>38</v>
@@ -2458,7 +2458,7 @@
         <v>25</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>25</v>
@@ -2466,27 +2466,27 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>33</v>
@@ -2495,29 +2495,29 @@
         <v>20</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>8</v>
@@ -2529,35 +2529,35 @@
         <v>24</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>48</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>38</v>
@@ -2569,47 +2569,47 @@
         <v>49</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>50</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>41</v>
@@ -2618,7 +2618,7 @@
         <v>41</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>22</v>
@@ -2629,133 +2629,133 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="H53" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>20</v>
@@ -2763,18 +2763,18 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>41</v>
@@ -2788,16 +2788,16 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>23</v>
@@ -2808,108 +2808,108 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G68" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>22</v>
@@ -2918,58 +2918,58 @@
         <v>22</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D76" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>33</v>
@@ -2978,7 +2978,7 @@
         <v>33</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>41</v>
@@ -2986,168 +2986,150 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>161</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="E85" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G85" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I85" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="J85" s="14" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3155,7 +3137,7 @@
         <v>168</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E88" s="14" t="s">
         <v>20</v>
@@ -3224,7 +3206,7 @@
         <v>22</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3247,7 +3229,7 @@
         <v>183</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3324,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>171</v>
@@ -3333,10 +3315,10 @@
         <v>188</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3353,13 +3335,13 @@
         <v>20</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3376,7 +3358,7 @@
         <v>173</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>194</v>
@@ -3422,22 +3404,19 @@
         <v>53</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G104" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="H104" s="14" t="s">
         <v>53</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3451,14 +3430,11 @@
         <v>49</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G105" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="H105" s="14" t="s">
         <v>199</v>
       </c>
@@ -3466,7 +3442,7 @@
         <v>50</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3477,25 +3453,22 @@
         <v>8</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3526,13 +3499,13 @@
         <v>20</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I109" s="14" t="s">
         <v>204</v>
@@ -3575,7 +3548,7 @@
         <v>33</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -3586,10 +3559,10 @@
         <v>38</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H113" s="14" t="s">
         <v>209</v>
@@ -3603,7 +3576,7 @@
         <v>8</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>27</v>
@@ -3677,7 +3650,7 @@
         <v>20</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G120" s="14" t="s">
         <v>20</v>
@@ -3809,13 +3782,13 @@
         <v>33</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H128" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -3868,7 +3841,7 @@
         <v>244</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -3884,16 +3857,16 @@
         <v>247</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F136" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J136" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J136" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -3901,7 +3874,7 @@
         <v>248</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>250</v>
@@ -3921,10 +3894,10 @@
         <v>249</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F138" s="14" t="s">
         <v>42</v>
@@ -3933,7 +3906,7 @@
         <v>253</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -3944,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G140" s="14" t="s">
         <v>33</v>
@@ -3958,13 +3931,13 @@
         <v>41</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -3972,7 +3945,7 @@
         <v>257</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E142" s="14" t="s">
         <v>203</v>
@@ -3998,7 +3971,7 @@
         <v>41</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J144" s="14" t="s">
         <v>33</v>
@@ -4061,7 +4034,7 @@
         <v>22</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I148" s="14" t="s">
         <v>22</v>
@@ -4081,16 +4054,16 @@
         <v>26</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G149" s="14" t="s">
         <v>269</v>
       </c>
       <c r="I149" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J149" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -4121,7 +4094,7 @@
         <v>271</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>33</v>
@@ -4130,7 +4103,7 @@
         <v>33</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I152" s="14" t="s">
         <v>22</v>
@@ -4205,7 +4178,7 @@
         <v>22</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -4225,7 +4198,7 @@
         <v>233</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -4245,7 +4218,7 @@
         <v>234</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -4259,10 +4232,10 @@
         <v>41</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I160" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J160" s="14" t="s">
         <v>41</v>
@@ -4325,7 +4298,7 @@
         <v>20</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H164" s="14" t="s">
         <v>33</v>
@@ -4342,10 +4315,10 @@
         <v>33</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G165" s="14" t="s">
         <v>295</v>
@@ -4385,7 +4358,7 @@
         <v>297</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F168" s="14" t="s">
         <v>41</v>
@@ -4437,22 +4410,22 @@
         <v>8</v>
       </c>
       <c r="D170" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F170" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="G170" s="14" t="s">
         <v>303</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J170" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -4460,10 +4433,10 @@
         <v>305</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -4471,7 +4444,7 @@
         <v>306</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E173" s="14" t="s">
         <v>309</v>
@@ -4516,7 +4489,7 @@
         <v>313</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>187</v>
@@ -4638,7 +4611,7 @@
         <v>325</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D186" s="14" t="s">
         <v>238</v>
@@ -4689,10 +4662,10 @@
         <v>308</v>
       </c>
       <c r="G190" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -4774,7 +4747,7 @@
         <v>336</v>
       </c>
       <c r="J197" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -4828,7 +4801,7 @@
         <v>22</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E201" s="14" t="s">
         <v>276</v>
@@ -4871,13 +4844,13 @@
         <v>343</v>
       </c>
       <c r="G204" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I204" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J204" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -4885,7 +4858,7 @@
         <v>344</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G205" s="14" t="s">
         <v>346</v>
@@ -4919,10 +4892,7 @@
         <v>349</v>
       </c>
       <c r="E208" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="J208" s="14" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -4930,13 +4900,10 @@
         <v>350</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E209" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="J209" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -4947,10 +4914,7 @@
         <v>352</v>
       </c>
       <c r="E210" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J210" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -4958,7 +4922,7 @@
         <v>353</v>
       </c>
       <c r="G212" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -4977,7 +4941,7 @@
         <v>355</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G214" s="14" t="s">
         <v>348</v>
@@ -4985,7 +4949,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D216" s="14" t="s">
         <v>41</v>
@@ -5005,13 +4969,13 @@
         <v>38</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E217" s="14" t="s">
         <v>315</v>
       </c>
       <c r="J217" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -5065,10 +5029,10 @@
         <v>290</v>
       </c>
       <c r="E221" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G221" s="14" t="s">
         <v>189</v>
@@ -5088,22 +5052,22 @@
         <v>8</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E222" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G222" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I222" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J222" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -5111,22 +5075,19 @@
         <v>363</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E224" s="14" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="G224" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H224" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I224" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J224" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -5137,10 +5098,10 @@
         <v>41</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E225" s="14" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="G225" s="14" t="s">
         <v>54</v>
@@ -5149,10 +5110,7 @@
         <v>367</v>
       </c>
       <c r="I225" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J225" s="14" t="s">
-        <v>54</v>
+        <v>368</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -5177,13 +5135,10 @@
       <c r="I226" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="J226" s="14" t="s">
-        <v>366</v>
-      </c>
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D228" s="14" t="s">
         <v>33</v>
@@ -5203,13 +5158,13 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B229" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E229" s="14" t="s">
         <v>230</v>
@@ -5226,7 +5181,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B230" s="14" t="s">
         <v>8</v>
@@ -5235,13 +5190,13 @@
         <v>231</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H230" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I230" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J230" s="14" t="s">
         <v>231</v>
@@ -5249,13 +5204,13 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D232" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E232" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F232" s="14" t="s">
         <v>22</v>
@@ -5269,13 +5224,13 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B233" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F233" s="14" t="s">
         <v>189</v>
@@ -5284,12 +5239,12 @@
         <v>26</v>
       </c>
       <c r="I233" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B234" s="14" t="s">
         <v>270</v>
@@ -5312,7 +5267,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G236" s="14" t="s">
         <v>20</v>
@@ -5320,18 +5275,18 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B237" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G237" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B238" s="14" t="s">
         <v>24</v>
@@ -5342,7 +5297,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D240" s="14" t="s">
         <v>41</v>
@@ -5351,7 +5306,7 @@
         <v>33</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G240" s="14" t="s">
         <v>33</v>
@@ -5359,19 +5314,19 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B241" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E241" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G241" s="14" t="s">
         <v>204</v>
@@ -5379,27 +5334,27 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B242" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E242" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G242" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E244" s="14" t="s">
         <v>41</v>
@@ -5410,21 +5365,21 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B245" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E245" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G245" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B246" s="14" t="s">
         <v>8</v>
@@ -5438,7 +5393,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>20</v>
@@ -5458,7 +5413,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B249" s="14" t="s">
         <v>33</v>
@@ -5473,7 +5428,7 @@
         <v>23</v>
       </c>
       <c r="I249" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J249" s="14" t="s">
         <v>205</v>
@@ -5481,7 +5436,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B250" s="14" t="s">
         <v>348</v>
@@ -5504,16 +5459,16 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E252" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G252" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H252" s="14" t="s">
         <v>20</v>
@@ -5524,30 +5479,30 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B253" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E253" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G253" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H253" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I253" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B254" s="14" t="s">
         <v>27</v>
@@ -5570,32 +5525,32 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G256" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B257" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G257" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B258" s="14" t="s">
         <v>8</v>
@@ -5609,7 +5564,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D260" s="14" t="s">
         <v>20</v>
@@ -5632,7 +5587,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B261" s="14" t="s">
         <v>38</v>
@@ -5658,44 +5613,44 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B262" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E262" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H262" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I262" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J262" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F265" s="14" t="s">
         <v>288</v>
@@ -5703,7 +5658,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B266" s="14" t="s">
         <v>253</v>
@@ -5714,24 +5669,21 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D268" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G268" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="I268" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J268" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B269" s="14" t="s">
         <v>38</v>
@@ -5739,9 +5691,6 @@
       <c r="D269" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G269" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="I269" s="14" t="s">
         <v>32</v>
       </c>
@@ -5751,7 +5700,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B270" s="14" t="s">
         <v>8</v>
@@ -5759,11 +5708,8 @@
       <c r="D270" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G270" s="14" t="s">
-        <v>411</v>
-      </c>
       <c r="I270" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J270" s="14" t="s">
         <v>31</v>
@@ -5771,7 +5717,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D272" s="14" t="s">
         <v>33</v>
@@ -5788,13 +5734,13 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G273" s="14" t="s">
         <v>39</v>
@@ -5808,7 +5754,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B274" s="14" t="s">
         <v>40</v>
@@ -5828,7 +5774,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D276" s="14" t="s">
         <v>20</v>
@@ -5845,7 +5791,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B277" s="14" t="s">
         <v>38</v>
@@ -5854,7 +5800,7 @@
         <v>39</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I277" s="14" t="s">
         <v>39</v>
@@ -5865,7 +5811,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B278" s="14" t="s">
         <v>8</v>
@@ -5880,18 +5826,15 @@
         <v>40</v>
       </c>
       <c r="J278" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E280" s="14" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="F280" s="14" t="s">
         <v>51</v>
@@ -5900,7 +5843,7 @@
         <v>48</v>
       </c>
       <c r="I280" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J280" s="14" t="s">
         <v>48</v>
@@ -5908,59 +5851,53 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B281" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E281" s="14" t="s">
-        <v>113</v>
+        <v>422</v>
       </c>
       <c r="F281" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G281" s="14" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="I281" s="14" t="s">
-        <v>54</v>
+        <v>422</v>
       </c>
       <c r="J281" s="14" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E282" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G282" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I282" s="14" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="J282" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D284" s="14" t="s">
         <v>33</v>
@@ -5983,7 +5920,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B285" s="14" t="s">
         <v>38</v>
@@ -5992,24 +5929,24 @@
         <v>252</v>
       </c>
       <c r="E285" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H285" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I285" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J285" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B286" s="14" t="s">
         <v>8</v>
@@ -6035,7 +5972,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D288" s="14" t="s">
         <v>33</v>
@@ -6050,35 +5987,35 @@
         <v>22</v>
       </c>
       <c r="J288" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F289" s="14" t="s">
         <v>287</v>
       </c>
       <c r="G289" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I289" s="14" t="s">
         <v>287</v>
       </c>
       <c r="J289" s="14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B290" s="14" t="s">
         <v>188</v>
@@ -6101,13 +6038,13 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D292" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E292" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F292" s="14" t="s">
         <v>41</v>
@@ -6116,41 +6053,41 @@
         <v>41</v>
       </c>
       <c r="I292" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J292" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B293" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E293" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H293" s="14" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I293" s="14" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J293" s="14" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B294" s="14" t="s">
         <v>8</v>
@@ -6176,7 +6113,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D296" s="14" t="s">
         <v>20</v>
@@ -6188,10 +6125,10 @@
         <v>20</v>
       </c>
       <c r="H296" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J296" s="14" t="s">
         <v>22</v>
@@ -6199,7 +6136,7 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B297" s="14" t="s">
         <v>41</v>
@@ -6214,7 +6151,7 @@
         <v>39</v>
       </c>
       <c r="H297" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I297" s="14" t="s">
         <v>310</v>
@@ -6225,7 +6162,7 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B298" s="14" t="s">
         <v>311</v>
@@ -6251,7 +6188,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D300" s="14" t="s">
         <v>33</v>
@@ -6277,7 +6214,7 @@
         <v>41</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E301" s="14" t="s">
         <v>39</v>
@@ -6286,15 +6223,15 @@
         <v>39</v>
       </c>
       <c r="I301" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J301" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B302" s="14" t="s">
         <v>42</v>
@@ -6317,7 +6254,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D304" s="14" t="s">
         <v>22</v>
@@ -6337,22 +6274,22 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B305" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E305" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F305" s="14" t="s">
         <v>347</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J305" s="14" t="s">
         <v>336</v>
@@ -6360,36 +6297,36 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E306" s="14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I306" s="14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J306" s="14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E308" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I308" s="14" t="s">
         <v>22</v>
@@ -6400,16 +6337,16 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B309" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E309" s="14" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I309" s="14" t="s">
         <v>187</v>
@@ -6420,7 +6357,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B310" s="14" t="s">
         <v>8</v>
@@ -6440,79 +6377,70 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E312" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G312" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I312" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J312" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D313" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="G313" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="E313" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G313" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="I313" s="14" t="s">
         <v>50</v>
       </c>
       <c r="J313" s="14" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="E314" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G314" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I314" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J314" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D316" s="14" t="s">
         <v>41</v>
@@ -6532,22 +6460,22 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B317" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F317" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H317" s="14" t="s">
         <v>205</v>
       </c>
       <c r="I317" s="14" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J317" s="14" t="s">
         <v>275</v>
@@ -6555,7 +6483,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B318" s="14" t="s">
         <v>259</v>
@@ -6564,46 +6492,46 @@
         <v>274</v>
       </c>
       <c r="F318" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H318" s="14" t="s">
         <v>259</v>
       </c>
       <c r="I318" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J318" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G320" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J320" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B321" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G321" s="14" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J321" s="14" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B322" s="14" t="s">
         <v>240</v>
@@ -6617,7 +6545,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E324" s="14" t="s">
         <v>22</v>
@@ -6640,7 +6568,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B325" s="14" t="s">
         <v>38</v>
@@ -6655,7 +6583,7 @@
         <v>39</v>
       </c>
       <c r="H325" s="14" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I325" s="14" t="s">
         <v>304</v>
@@ -6666,7 +6594,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B326" s="14" t="s">
         <v>8</v>
@@ -6675,7 +6603,7 @@
         <v>303</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G326" s="14" t="s">
         <v>308</v>
@@ -6684,15 +6612,15 @@
         <v>303</v>
       </c>
       <c r="I326" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J326" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="J326" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D328" s="14" t="s">
         <v>33</v>
@@ -6712,30 +6640,30 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B329" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G329" s="14" t="s">
         <v>214</v>
       </c>
       <c r="H329" s="14" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I329" s="14" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="J329" s="14" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B330" s="14" t="s">
         <v>34</v>
@@ -6758,7 +6686,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D332" s="14" t="s">
         <v>22</v>
@@ -6766,18 +6694,18 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B333" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B334" s="14" t="s">
         <v>8</v>
@@ -6788,13 +6716,13 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D336" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G336" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H336" s="14" t="s">
         <v>33</v>
@@ -6803,35 +6731,35 @@
         <v>20</v>
       </c>
       <c r="J336" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B337" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G337" s="14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H337" s="14" t="s">
         <v>296</v>
       </c>
       <c r="I337" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J337" s="14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="338" spans="1:10">
       <c r="A338" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B338" s="14" t="s">
         <v>359</v>
@@ -6854,27 +6782,27 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H340" s="14" t="s">
         <v>22</v>
       </c>
       <c r="I340" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="341" spans="1:10">
       <c r="A341" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D341" s="14" t="s">
         <v>277</v>
@@ -6891,7 +6819,7 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B342" s="14" t="s">
         <v>278</v>

--- a/Subject Allocations.xlsx
+++ b/Subject Allocations.xlsx
@@ -9,17 +9,20 @@
   <sheets>
     <sheet name="All Staff" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'All Staff'!$1:$3</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="487">
   <si>
     <t>2022 Teaching Staff Sem 2</t>
   </si>
   <si>
-    <t>04/07/2022 15:12:53</t>
+    <t>05/07/2022 10:19:00</t>
   </si>
   <si>
     <t>M - 6 4 3 PD 5</t>
@@ -37,7 +40,7 @@
     <t>F - 1 7 5 4 3</t>
   </si>
   <si>
-    <t>Staff Member</t>
+    <t>Staff</t>
   </si>
   <si>
     <t>Care</t>
@@ -88,19 +91,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>08 O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English </t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
-    <t>English O2</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
     <t>Italian</t>
   </si>
   <si>
-    <t>English O1</t>
+    <t>07 O1</t>
   </si>
   <si>
     <t>B4</t>
@@ -232,7 +238,7 @@
     <t>BLAM</t>
   </si>
   <si>
-    <t>English L1</t>
+    <t>09 L1</t>
   </si>
   <si>
     <t>B3</t>
@@ -241,7 +247,7 @@
     <t>Essential English (Literacy) 2</t>
   </si>
   <si>
-    <t>English L</t>
+    <t>10 L</t>
   </si>
   <si>
     <t>English P1</t>
@@ -259,19 +265,22 @@
     <t>AC4</t>
   </si>
   <si>
-    <t>Science O5</t>
-  </si>
-  <si>
-    <t>Science E1</t>
+    <t>09 O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science </t>
+  </si>
+  <si>
+    <t>08 E1</t>
   </si>
   <si>
     <t>Physics B</t>
   </si>
   <si>
-    <t>Science L1</t>
-  </si>
-  <si>
-    <t>Science O4</t>
+    <t>08 L1</t>
+  </si>
+  <si>
+    <t>08 O4</t>
   </si>
   <si>
     <t>Dora</t>
@@ -298,7 +307,13 @@
     <t>BRUC</t>
   </si>
   <si>
-    <t>English E</t>
+    <t>10 E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nglish </t>
+  </si>
+  <si>
+    <t>07 E</t>
   </si>
   <si>
     <t>English as an Additional Language 2</t>
@@ -340,16 +355,22 @@
     <t>B6</t>
   </si>
   <si>
-    <t>English O3</t>
+    <t>09 O3</t>
+  </si>
+  <si>
+    <t>09 O2</t>
   </si>
   <si>
     <t>Essential English</t>
   </si>
   <si>
-    <t>Humanities O5</t>
-  </si>
-  <si>
-    <t>English O4</t>
+    <t>08 O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humanities </t>
+  </si>
+  <si>
+    <t>07 O4</t>
   </si>
   <si>
     <t>Amy</t>
@@ -403,7 +424,10 @@
     <t>AB4</t>
   </si>
   <si>
-    <t>English O5</t>
+    <t>10 O2</t>
+  </si>
+  <si>
+    <t>09 O1</t>
   </si>
   <si>
     <t>Christine</t>
@@ -415,9 +439,6 @@
     <t>COL</t>
   </si>
   <si>
-    <t>1P</t>
-  </si>
-  <si>
     <t>M8</t>
   </si>
   <si>
@@ -460,7 +481,7 @@
     <t>L3</t>
   </si>
   <si>
-    <t>Mathematics O2</t>
+    <t xml:space="preserve">Mathematics </t>
   </si>
   <si>
     <t>Health and Wellbeing</t>
@@ -484,16 +505,16 @@
     <t>Psychology</t>
   </si>
   <si>
-    <t>Mathematics O1</t>
-  </si>
-  <si>
-    <t>Mathematics O4</t>
+    <t>10 O1</t>
+  </si>
+  <si>
+    <t>10 O4</t>
   </si>
   <si>
     <t>Political Philosophy</t>
   </si>
   <si>
-    <t>Mathematics E1</t>
+    <t>09 E1</t>
   </si>
   <si>
     <t>Briianka</t>
@@ -541,13 +562,7 @@
     <t>Scientific Studies</t>
   </si>
   <si>
-    <t>Science P</t>
-  </si>
-  <si>
-    <t>Science O2</t>
-  </si>
-  <si>
-    <t>Science L</t>
+    <t>07 P</t>
   </si>
   <si>
     <t>Peter</t>
@@ -562,13 +577,7 @@
     <t>K1</t>
   </si>
   <si>
-    <t>Humanities L1</t>
-  </si>
-  <si>
-    <t>Humanities L</t>
-  </si>
-  <si>
-    <t>Humanities O3</t>
+    <t>08 L</t>
   </si>
   <si>
     <t>Humanities O</t>
@@ -583,13 +592,13 @@
     <t>DOAH</t>
   </si>
   <si>
-    <t>Science O3</t>
+    <t>07 O3</t>
   </si>
   <si>
     <t>AB1</t>
   </si>
   <si>
-    <t>Science O1</t>
+    <t>07 L</t>
   </si>
   <si>
     <t>John</t>
@@ -604,6 +613,9 @@
     <t>AC2</t>
   </si>
   <si>
+    <t>09 P</t>
+  </si>
+  <si>
     <t>Chemistry</t>
   </si>
   <si>
@@ -634,10 +646,7 @@
     <t>AB3</t>
   </si>
   <si>
-    <t>English P</t>
-  </si>
-  <si>
-    <t>Literacy P</t>
+    <t xml:space="preserve">Literacy </t>
   </si>
   <si>
     <t>Theresa</t>
@@ -649,6 +658,9 @@
     <t>EDTH</t>
   </si>
   <si>
+    <t>08 O3</t>
+  </si>
+  <si>
     <t>Essential English 2</t>
   </si>
   <si>
@@ -796,9 +808,15 @@
     <t>HARM</t>
   </si>
   <si>
+    <t>07 O5</t>
+  </si>
+  <si>
     <t>AB7</t>
   </si>
   <si>
+    <t>10 O3</t>
+  </si>
+  <si>
     <t>B2</t>
   </si>
   <si>
@@ -829,12 +847,18 @@
     <t>HOUE</t>
   </si>
   <si>
+    <t>08 O1</t>
+  </si>
+  <si>
     <t>Personal Learning Plan E</t>
   </si>
   <si>
     <t>AC1</t>
   </si>
   <si>
+    <t>08 E</t>
+  </si>
+  <si>
     <t>Jonathan</t>
   </si>
   <si>
@@ -847,12 +871,6 @@
     <t>M5</t>
   </si>
   <si>
-    <t>Humanities O2</t>
-  </si>
-  <si>
-    <t>Humanities O4</t>
-  </si>
-  <si>
     <t>Research Project</t>
   </si>
   <si>
@@ -883,18 +901,12 @@
     <t>AD3</t>
   </si>
   <si>
-    <t>Mathematics L1</t>
-  </si>
-  <si>
     <t>General Mathematics B</t>
   </si>
   <si>
     <t>Chemistry B</t>
   </si>
   <si>
-    <t>Mathematics O3</t>
-  </si>
-  <si>
     <t>Simon</t>
   </si>
   <si>
@@ -907,12 +919,12 @@
     <t>AB10</t>
   </si>
   <si>
+    <t>07 O2</t>
+  </si>
+  <si>
     <t>Essential Mathematics (Vocational) 2</t>
   </si>
   <si>
-    <t>Mathematics E</t>
-  </si>
-  <si>
     <t>Mitch</t>
   </si>
   <si>
@@ -967,7 +979,10 @@
     <t>JNEM</t>
   </si>
   <si>
-    <t>Science E</t>
+    <t>08 P</t>
+  </si>
+  <si>
+    <t>09 E</t>
   </si>
   <si>
     <t>AD4</t>
@@ -1030,10 +1045,7 @@
     <t>LOVC</t>
   </si>
   <si>
-    <t>Mathematics O5</t>
-  </si>
-  <si>
-    <t>Mathematics P</t>
+    <t>09 O4</t>
   </si>
   <si>
     <t>Pat</t>
@@ -1045,12 +1057,6 @@
     <t>LPZ</t>
   </si>
   <si>
-    <t>Humanities O1</t>
-  </si>
-  <si>
-    <t>Humanities E</t>
-  </si>
-  <si>
     <t>Rebecca</t>
   </si>
   <si>
@@ -1111,6 +1117,12 @@
     <t>MCLR</t>
   </si>
   <si>
+    <t>10 E1</t>
+  </si>
+  <si>
+    <t>09 L</t>
+  </si>
+  <si>
     <t>Bronwen</t>
   </si>
   <si>
@@ -1153,10 +1165,7 @@
     <t>MUNM</t>
   </si>
   <si>
-    <t>Humanities P</t>
-  </si>
-  <si>
-    <t>1PLPL1</t>
+    <t>Personal Learning Plan L1</t>
   </si>
   <si>
     <t>Therese</t>
@@ -1180,7 +1189,7 @@
     <t>PCT</t>
   </si>
   <si>
-    <t>Humanities E1</t>
+    <t>10 P</t>
   </si>
   <si>
     <t>Nicole</t>
@@ -1315,6 +1324,9 @@
     <t>Mathematics A</t>
   </si>
   <si>
+    <t>10 L1</t>
+  </si>
+  <si>
     <t>Mathematical Methods B</t>
   </si>
   <si>
@@ -1384,16 +1396,10 @@
     <t>WAR</t>
   </si>
   <si>
-    <t>2P</t>
-  </si>
-  <si>
     <t>M9</t>
   </si>
   <si>
     <t>Cross Disc</t>
-  </si>
-  <si>
-    <t>SWDRP</t>
   </si>
   <si>
     <t>Brooke</t>
@@ -1577,7 +1583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1597,12 +1603,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1647,13 +1677,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1953,7 +1983,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2046,13 +2079,13 @@
         <v>24</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>21</v>
@@ -2061,7 +2094,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
@@ -2078,22 +2111,22 @@
         <v>25</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
@@ -2143,12 +2176,12 @@
         <v>23</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>23</v>
@@ -2172,18 +2205,18 @@
         <v>21</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>23</v>
@@ -2198,24 +2231,24 @@
         <v>23</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>23</v>
@@ -2248,21 +2281,21 @@
         <v>23</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>23</v>
@@ -2274,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>23</v>
@@ -2283,21 +2316,21 @@
         <v>23</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>23</v>
@@ -2306,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>23</v>
@@ -2315,18 +2348,18 @@
         <v>23</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>8</v>
@@ -2356,7 +2389,7 @@
         <v>23</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>23</v>
@@ -2365,18 +2398,18 @@
         <v>23</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>23</v>
@@ -2385,16 +2418,16 @@
         <v>23</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>23</v>
@@ -2403,12 +2436,12 @@
         <v>23</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>21</v>
@@ -2417,16 +2450,16 @@
         <v>23</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>23</v>
@@ -2435,15 +2468,15 @@
         <v>23</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>23</v>
@@ -2467,16 +2500,16 @@
         <v>23</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>23</v>
@@ -2485,12 +2518,12 @@
         <v>23</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>23</v>
@@ -2505,13 +2538,13 @@
         <v>23</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>23</v>
@@ -2522,10 +2555,10 @@
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>23</v>
@@ -2537,13 +2570,13 @@
         <v>23</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>23</v>
@@ -2554,7 +2587,7 @@
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>8</v>
@@ -2593,7 +2626,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>23</v>
@@ -2604,7 +2637,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>23</v>
@@ -2636,10 +2669,10 @@
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>23</v>
@@ -2668,10 +2701,10 @@
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>23</v>
@@ -2718,7 +2751,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>23</v>
@@ -2730,13 +2763,13 @@
         <v>23</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>23</v>
@@ -2745,15 +2778,15 @@
         <v>23</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>23</v>
@@ -2762,13 +2795,13 @@
         <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>23</v>
@@ -2777,12 +2810,12 @@
         <v>23</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>8</v>
@@ -2812,13 +2845,13 @@
         <v>23</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>23</v>
@@ -2827,12 +2860,12 @@
         <v>23</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>23</v>
@@ -2844,19 +2877,19 @@
         <v>23</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>23</v>
@@ -2864,7 +2897,7 @@
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>21</v>
@@ -2876,19 +2909,19 @@
         <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G33" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="I33" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>23</v>
@@ -2896,10 +2929,10 @@
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>23</v>
@@ -2926,19 +2959,19 @@
         <v>23</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>23</v>
@@ -2946,7 +2979,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>23</v>
@@ -2961,7 +2994,7 @@
         <v>23</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>23</v>
@@ -2973,44 +3006,44 @@
         <v>23</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -3037,30 +3070,30 @@
         <v>23</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>23</v>
@@ -3072,16 +3105,16 @@
         <v>23</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>23</v>
@@ -3092,10 +3125,10 @@
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>23</v>
@@ -3104,16 +3137,16 @@
         <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>23</v>
@@ -3124,7 +3157,7 @@
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>8</v>
@@ -3163,7 +3196,7 @@
         <v>23</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>23</v>
@@ -3174,7 +3207,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>23</v>
@@ -3183,62 +3216,62 @@
         <v>23</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>8</v>
@@ -3265,30 +3298,30 @@
         <v>23</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>23</v>
@@ -3297,65 +3330,65 @@
         <v>23</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>23</v>
@@ -3379,30 +3412,30 @@
         <v>23</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I51" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>23</v>
@@ -3411,62 +3444,62 @@
         <v>23</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F53" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>8</v>
@@ -3493,30 +3526,30 @@
         <v>23</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>23</v>
@@ -3548,7 +3581,7 @@
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>21</v>
@@ -3580,10 +3613,10 @@
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>23</v>
@@ -3630,7 +3663,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>23</v>
@@ -3645,27 +3678,27 @@
         <v>23</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>23</v>
@@ -3677,10 +3710,10 @@
         <v>23</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>25</v>
@@ -3689,15 +3722,15 @@
         <v>23</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>23</v>
@@ -3727,24 +3760,24 @@
         <v>23</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I63" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="14" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>23</v>
@@ -3765,10 +3798,10 @@
         <v>23</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J64" s="15" t="s">
         <v>23</v>
@@ -3776,10 +3809,10 @@
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>23</v>
@@ -3797,10 +3830,10 @@
         <v>23</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J65" s="16" t="s">
         <v>23</v>
@@ -3808,10 +3841,10 @@
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>23</v>
@@ -3847,10 +3880,10 @@
         <v>23</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J67" s="18" t="s">
         <v>23</v>
@@ -3858,7 +3891,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="14" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>23</v>
@@ -3876,10 +3909,10 @@
         <v>23</v>
       </c>
       <c r="G68" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="I68" s="15" t="s">
         <v>23</v>
@@ -3890,10 +3923,10 @@
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>23</v>
@@ -3908,10 +3941,10 @@
         <v>23</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>23</v>
@@ -3922,7 +3955,7 @@
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1">
       <c r="A70" s="14" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>8</v>
@@ -3958,10 +3991,10 @@
         <v>23</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I71" s="18" t="s">
         <v>23</v>
@@ -3972,7 +4005,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="14" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>23</v>
@@ -3984,19 +4017,19 @@
         <v>23</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J72" s="15" t="s">
         <v>23</v>
@@ -4004,10 +4037,10 @@
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>23</v>
@@ -4016,19 +4049,19 @@
         <v>23</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H73" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J73" s="16" t="s">
         <v>23</v>
@@ -4036,7 +4069,7 @@
     </row>
     <row r="74" spans="1:10" ht="18" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -4066,19 +4099,19 @@
         <v>23</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J75" s="18" t="s">
         <v>23</v>
@@ -4086,7 +4119,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>23</v>
@@ -4095,65 +4128,65 @@
         <v>23</v>
       </c>
       <c r="D76" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E76" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="F76" s="15" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="G76" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>156</v>
-      </c>
       <c r="G77" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>23</v>
@@ -4177,30 +4210,30 @@
         <v>23</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="14" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>23</v>
@@ -4209,10 +4242,10 @@
         <v>23</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>23</v>
@@ -4232,19 +4265,19 @@
     </row>
     <row r="81" spans="1:10" ht="18" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>23</v>
@@ -4264,10 +4297,10 @@
     </row>
     <row r="82" spans="1:10" ht="18" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>23</v>
@@ -4291,10 +4324,10 @@
         <v>23</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>23</v>
@@ -4314,7 +4347,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>23</v>
@@ -4326,30 +4359,30 @@
         <v>23</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I84" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J84" s="15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="18" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>23</v>
@@ -4358,30 +4391,30 @@
         <v>23</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F85" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I85" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="18" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>23</v>
@@ -4408,27 +4441,27 @@
         <v>23</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F87" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>23</v>
@@ -4437,19 +4470,19 @@
         <v>23</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="I88" s="15" t="s">
         <v>23</v>
@@ -4460,28 +4493,28 @@
     </row>
     <row r="89" spans="1:10" ht="18" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="F89" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="I89" s="16" t="s">
         <v>23</v>
@@ -4492,10 +4525,10 @@
     </row>
     <row r="90" spans="1:10" ht="18" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>23</v>
@@ -4519,19 +4552,19 @@
         <v>23</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F91" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I91" s="18" t="s">
         <v>23</v>
@@ -4542,7 +4575,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>23</v>
@@ -4551,65 +4584,65 @@
         <v>23</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I92" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="18" customHeight="1">
       <c r="A93" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J93" s="16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="18" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>23</v>
@@ -4633,30 +4666,30 @@
         <v>23</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I95" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>23</v>
@@ -4665,13 +4698,13 @@
         <v>23</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="E96" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="G96" s="15" t="s">
         <v>23</v>
@@ -4680,47 +4713,47 @@
         <v>24</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="18" customHeight="1">
       <c r="A97" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="18" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>8</v>
@@ -4747,30 +4780,30 @@
         <v>23</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>23</v>
@@ -4779,22 +4812,22 @@
         <v>23</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J100" s="15" t="s">
         <v>23</v>
@@ -4802,31 +4835,31 @@
     </row>
     <row r="101" spans="1:10" ht="18" customHeight="1">
       <c r="A101" s="14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J101" s="16" t="s">
         <v>23</v>
@@ -4834,10 +4867,10 @@
     </row>
     <row r="102" spans="1:10" ht="18" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>23</v>
@@ -4861,22 +4894,22 @@
         <v>23</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J103" s="18" t="s">
         <v>23</v>
@@ -4884,7 +4917,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>23</v>
@@ -4893,62 +4926,62 @@
         <v>23</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G104" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J104" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="18" customHeight="1">
       <c r="A105" s="14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G105" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="18" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>8</v>
@@ -4975,30 +5008,30 @@
         <v>23</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G107" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>23</v>
@@ -5010,27 +5043,27 @@
         <v>23</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="G108" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="J108" s="15" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="18" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>21</v>
@@ -5042,30 +5075,30 @@
         <v>23</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I109" s="16" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="18" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>23</v>
@@ -5092,27 +5125,27 @@
         <v>23</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G111" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J111" s="18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>23</v>
@@ -5127,13 +5160,13 @@
         <v>23</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I112" s="15" t="s">
         <v>23</v>
@@ -5144,10 +5177,10 @@
     </row>
     <row r="113" spans="1:10" ht="18" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>23</v>
@@ -5159,13 +5192,13 @@
         <v>23</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>23</v>
@@ -5176,7 +5209,7 @@
     </row>
     <row r="114" spans="1:10" ht="18" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>8</v>
@@ -5209,10 +5242,10 @@
         <v>23</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H115" s="18" t="s">
         <v>26</v>
@@ -5226,7 +5259,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>23</v>
@@ -5238,30 +5271,30 @@
         <v>23</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J116" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="18" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>23</v>
@@ -5270,30 +5303,30 @@
         <v>23</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H117" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="18" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>23</v>
@@ -5320,27 +5353,27 @@
         <v>23</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F119" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H119" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J119" s="18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>23</v>
@@ -5352,7 +5385,7 @@
         <v>21</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>23</v>
@@ -5364,7 +5397,7 @@
         <v>23</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J120" s="15" t="s">
         <v>23</v>
@@ -5372,31 +5405,31 @@
     </row>
     <row r="121" spans="1:10" ht="18" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F121" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J121" s="16" t="s">
         <v>23</v>
@@ -5404,10 +5437,10 @@
     </row>
     <row r="122" spans="1:10" ht="18" customHeight="1">
       <c r="A122" s="14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>23</v>
@@ -5431,22 +5464,22 @@
         <v>23</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F123" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H123" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J123" s="18" t="s">
         <v>23</v>
@@ -5454,7 +5487,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>23</v>
@@ -5469,56 +5502,56 @@
         <v>23</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G124" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I124" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="18" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H125" s="16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J125" s="16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="18" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>8</v>
@@ -5545,30 +5578,30 @@
         <v>23</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E127" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J127" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="14" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B128" s="15" t="s">
         <v>23</v>
@@ -5577,42 +5610,42 @@
         <v>23</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E128" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J128" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H128" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I128" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J128" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="18" customHeight="1">
       <c r="A129" s="14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>23</v>
@@ -5621,21 +5654,21 @@
         <v>23</v>
       </c>
       <c r="H129" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J129" s="16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="18" customHeight="1">
       <c r="A130" s="14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>23</v>
@@ -5659,10 +5692,10 @@
         <v>23</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F131" s="18" t="s">
         <v>23</v>
@@ -5671,18 +5704,18 @@
         <v>23</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I131" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J131" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B132" s="15" t="s">
         <v>23</v>
@@ -5714,10 +5747,10 @@
     </row>
     <row r="133" spans="1:10" ht="18" customHeight="1">
       <c r="A133" s="14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>23</v>
@@ -5746,10 +5779,10 @@
     </row>
     <row r="134" spans="1:10" ht="18" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>23</v>
@@ -5796,7 +5829,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="14" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>23</v>
@@ -5808,30 +5841,30 @@
         <v>23</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F136" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I136" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J136" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I136" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J136" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="18" customHeight="1">
       <c r="A137" s="14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>23</v>
@@ -5840,13 +5873,13 @@
         <v>23</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>23</v>
@@ -5855,15 +5888,15 @@
         <v>23</v>
       </c>
       <c r="J137" s="16" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="18" customHeight="1">
       <c r="A138" s="14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>23</v>
@@ -5890,13 +5923,13 @@
         <v>23</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H139" s="18" t="s">
         <v>23</v>
@@ -5905,12 +5938,12 @@
         <v>23</v>
       </c>
       <c r="J139" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B140" s="15" t="s">
         <v>23</v>
@@ -5922,13 +5955,13 @@
         <v>23</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="H140" s="15" t="s">
         <v>23</v>
@@ -5942,10 +5975,10 @@
     </row>
     <row r="141" spans="1:10" ht="18" customHeight="1">
       <c r="A141" s="14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>23</v>
@@ -5954,13 +5987,13 @@
         <v>23</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H141" s="16" t="s">
         <v>23</v>
@@ -5974,10 +6007,10 @@
     </row>
     <row r="142" spans="1:10" ht="18" customHeight="1">
       <c r="A142" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>23</v>
@@ -6004,13 +6037,13 @@
         <v>23</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H143" s="18" t="s">
         <v>23</v>
@@ -6024,7 +6057,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="14" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>23</v>
@@ -6036,30 +6069,30 @@
         <v>23</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F144" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I144" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J144" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="18" customHeight="1">
       <c r="A145" s="14" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>23</v>
@@ -6068,30 +6101,30 @@
         <v>23</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F145" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H145" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J145" s="16" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="18" customHeight="1">
       <c r="A146" s="14" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>23</v>
@@ -6118,27 +6151,27 @@
         <v>23</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F147" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="I147" s="18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="J147" s="18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="14" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B148" s="15" t="s">
         <v>23</v>
@@ -6147,62 +6180,62 @@
         <v>23</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="E148" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H148" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I148" s="15" t="s">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="J148" s="15" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="18" customHeight="1">
       <c r="A149" s="14" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H149" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="18" customHeight="1">
       <c r="A150" s="14" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>8</v>
@@ -6235,24 +6268,24 @@
         <v>23</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H151" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="J151" s="18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="14" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>23</v>
@@ -6261,16 +6294,16 @@
         <v>23</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H152" s="15" t="s">
         <v>23</v>
@@ -6279,44 +6312,44 @@
         <v>24</v>
       </c>
       <c r="J152" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="18" customHeight="1">
       <c r="A153" s="14" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>278</v>
+        <v>116</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H153" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
       <c r="J153" s="16" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="18" customHeight="1">
       <c r="A154" s="14" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B154" s="15" t="s">
         <v>8</v>
@@ -6343,30 +6376,30 @@
         <v>23</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H155" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I155" s="18" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="J155" s="18" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="14" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B156" s="15" t="s">
         <v>23</v>
@@ -6378,16 +6411,16 @@
         <v>23</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I156" s="15" t="s">
         <v>23</v>
@@ -6398,10 +6431,10 @@
     </row>
     <row r="157" spans="1:10" ht="18" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>23</v>
@@ -6410,16 +6443,16 @@
         <v>23</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H157" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I157" s="16" t="s">
         <v>23</v>
@@ -6430,7 +6463,7 @@
     </row>
     <row r="158" spans="1:10" ht="18" customHeight="1">
       <c r="A158" s="14" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B158" s="15" t="s">
         <v>8</v>
@@ -6460,16 +6493,16 @@
         <v>23</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I159" s="18" t="s">
         <v>23</v>
@@ -6480,7 +6513,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="14" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B160" s="15" t="s">
         <v>23</v>
@@ -6492,30 +6525,30 @@
         <v>23</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="F160" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I160" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J160" s="15" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="18" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>23</v>
@@ -6524,27 +6557,27 @@
         <v>23</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="F161" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
       <c r="H161" s="16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I161" s="16" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="J161" s="16" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="18" customHeight="1">
       <c r="A162" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B162" s="15" t="s">
         <v>8</v>
@@ -6574,27 +6607,27 @@
         <v>23</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F163" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B164" s="15" t="s">
         <v>23</v>
@@ -6603,22 +6636,22 @@
         <v>23</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="F164" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="I164" s="15" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="J164" s="15" t="s">
         <v>23</v>
@@ -6626,31 +6659,31 @@
     </row>
     <row r="165" spans="1:10" ht="18" customHeight="1">
       <c r="A165" s="14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F165" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="I165" s="16" t="s">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="J165" s="16" t="s">
         <v>23</v>
@@ -6658,10 +6691,10 @@
     </row>
     <row r="166" spans="1:10" ht="18" customHeight="1">
       <c r="A166" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>23</v>
@@ -6685,22 +6718,22 @@
         <v>23</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F167" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J167" s="18" t="s">
         <v>23</v>
@@ -6708,7 +6741,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="14" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B168" s="15" t="s">
         <v>23</v>
@@ -6717,62 +6750,62 @@
         <v>23</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E168" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I168" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J168" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="18" customHeight="1">
       <c r="A169" s="14" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H169" s="16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I169" s="16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J169" s="16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="18" customHeight="1">
       <c r="A170" s="14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B170" s="15" t="s">
         <v>8</v>
@@ -6799,30 +6832,30 @@
         <v>23</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J171" s="18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="14" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B172" s="15" t="s">
         <v>23</v>
@@ -6834,10 +6867,10 @@
         <v>23</v>
       </c>
       <c r="E172" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G172" s="15" t="s">
         <v>23</v>
@@ -6854,10 +6887,10 @@
     </row>
     <row r="173" spans="1:10" ht="18" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>23</v>
@@ -6866,10 +6899,10 @@
         <v>23</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G173" s="16" t="s">
         <v>23</v>
@@ -6886,10 +6919,10 @@
     </row>
     <row r="174" spans="1:10" ht="18" customHeight="1">
       <c r="A174" s="14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>23</v>
@@ -6916,10 +6949,10 @@
         <v>23</v>
       </c>
       <c r="E175" s="18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G175" s="18" t="s">
         <v>23</v>
@@ -6936,7 +6969,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>23</v>
@@ -6948,16 +6981,16 @@
         <v>23</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="F176" s="15" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>43</v>
+        <v>321</v>
       </c>
       <c r="H176" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I176" s="15" t="s">
         <v>23</v>
@@ -6968,10 +7001,10 @@
     </row>
     <row r="177" spans="1:10" ht="18" customHeight="1">
       <c r="A177" s="14" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>23</v>
@@ -6980,16 +7013,16 @@
         <v>23</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I177" s="16" t="s">
         <v>23</v>
@@ -7000,10 +7033,10 @@
     </row>
     <row r="178" spans="1:10" ht="18" customHeight="1">
       <c r="A178" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C178" s="15" t="s">
         <v>23</v>
@@ -7030,16 +7063,16 @@
         <v>23</v>
       </c>
       <c r="E179" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G179" s="18" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I179" s="18" t="s">
         <v>23</v>
@@ -7050,7 +7083,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B180" s="15" t="s">
         <v>23</v>
@@ -7065,7 +7098,7 @@
         <v>23</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G180" s="15" t="s">
         <v>23</v>
@@ -7074,18 +7107,18 @@
         <v>21</v>
       </c>
       <c r="I180" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J180" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="18" customHeight="1">
       <c r="A181" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>23</v>
@@ -7097,24 +7130,24 @@
         <v>23</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I181" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J181" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="18" customHeight="1">
       <c r="A182" s="14" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B182" s="15" t="s">
         <v>8</v>
@@ -7147,24 +7180,24 @@
         <v>23</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G183" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J183" s="18" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="14" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B184" s="15" t="s">
         <v>23</v>
@@ -7173,7 +7206,7 @@
         <v>23</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E184" s="15" t="s">
         <v>23</v>
@@ -7191,21 +7224,21 @@
         <v>23</v>
       </c>
       <c r="J184" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="18" customHeight="1">
       <c r="A185" s="14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>23</v>
@@ -7223,15 +7256,15 @@
         <v>23</v>
       </c>
       <c r="J185" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="18" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>23</v>
@@ -7255,7 +7288,7 @@
         <v>23</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E187" s="18" t="s">
         <v>23</v>
@@ -7273,12 +7306,12 @@
         <v>23</v>
       </c>
       <c r="J187" s="18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="14" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B188" s="15" t="s">
         <v>23</v>
@@ -7293,10 +7326,10 @@
         <v>23</v>
       </c>
       <c r="F188" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H188" s="15" t="s">
         <v>21</v>
@@ -7310,10 +7343,10 @@
     </row>
     <row r="189" spans="1:10" ht="18" customHeight="1">
       <c r="A189" s="14" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>23</v>
@@ -7325,13 +7358,13 @@
         <v>23</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H189" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I189" s="16" t="s">
         <v>23</v>
@@ -7342,7 +7375,7 @@
     </row>
     <row r="190" spans="1:10" ht="18" customHeight="1">
       <c r="A190" s="14" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B190" s="15" t="s">
         <v>8</v>
@@ -7375,13 +7408,13 @@
         <v>23</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G191" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H191" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I191" s="18" t="s">
         <v>23</v>
@@ -7392,7 +7425,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="14" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B192" s="15" t="s">
         <v>23</v>
@@ -7410,13 +7443,13 @@
         <v>23</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H192" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J192" s="15" t="s">
         <v>23</v>
@@ -7424,10 +7457,10 @@
     </row>
     <row r="193" spans="1:10" ht="18" customHeight="1">
       <c r="A193" s="14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>23</v>
@@ -7442,13 +7475,13 @@
         <v>23</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H193" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I193" s="16" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J193" s="16" t="s">
         <v>23</v>
@@ -7456,7 +7489,7 @@
     </row>
     <row r="194" spans="1:10" ht="18" customHeight="1">
       <c r="A194" s="14" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B194" s="15" t="s">
         <v>8</v>
@@ -7492,13 +7525,13 @@
         <v>23</v>
       </c>
       <c r="G195" s="18" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H195" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I195" s="18" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J195" s="18" t="s">
         <v>23</v>
@@ -7506,7 +7539,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="14" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B196" s="15" t="s">
         <v>23</v>
@@ -7515,30 +7548,30 @@
         <v>23</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="E196" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F196" s="15" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="H196" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="J196" s="15" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="18" customHeight="1">
       <c r="A197" s="14" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B197" s="15" t="s">
         <v>21</v>
@@ -7547,33 +7580,33 @@
         <v>23</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="E197" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>339</v>
+        <v>154</v>
       </c>
       <c r="G197" s="16" t="s">
-        <v>339</v>
+        <v>154</v>
       </c>
       <c r="H197" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I197" s="16" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="J197" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="18" customHeight="1">
       <c r="A198" s="14" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>23</v>
@@ -7597,30 +7630,30 @@
         <v>23</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E199" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H199" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I199" s="18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J199" s="18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B200" s="15" t="s">
         <v>23</v>
@@ -7629,19 +7662,19 @@
         <v>23</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E200" s="15" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F200" s="15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="I200" s="15" t="s">
         <v>23</v>
@@ -7652,28 +7685,28 @@
     </row>
     <row r="201" spans="1:10" ht="18" customHeight="1">
       <c r="A201" s="14" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C201" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>278</v>
+        <v>116</v>
       </c>
       <c r="F201" s="16" t="s">
-        <v>343</v>
+        <v>116</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>278</v>
+        <v>116</v>
       </c>
       <c r="H201" s="16" t="s">
-        <v>344</v>
+        <v>116</v>
       </c>
       <c r="I201" s="16" t="s">
         <v>23</v>
@@ -7684,10 +7717,10 @@
     </row>
     <row r="202" spans="1:10" ht="18" customHeight="1">
       <c r="A202" s="14" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C202" s="15" t="s">
         <v>23</v>
@@ -7711,19 +7744,19 @@
         <v>23</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G203" s="18" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I203" s="18" t="s">
         <v>23</v>
@@ -7734,7 +7767,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B204" s="15" t="s">
         <v>23</v>
@@ -7752,24 +7785,24 @@
         <v>23</v>
       </c>
       <c r="G204" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H204" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I204" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J204" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="18" customHeight="1">
       <c r="A205" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C205" s="15" t="s">
         <v>23</v>
@@ -7784,24 +7817,24 @@
         <v>23</v>
       </c>
       <c r="G205" s="16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H205" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I205" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="J205" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="J205" s="16" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="18" customHeight="1">
       <c r="A206" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C206" s="15" t="s">
         <v>23</v>
@@ -7834,21 +7867,21 @@
         <v>23</v>
       </c>
       <c r="G207" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H207" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I207" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J207" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B208" s="15" t="s">
         <v>23</v>
@@ -7860,7 +7893,7 @@
         <v>23</v>
       </c>
       <c r="E208" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F208" s="15" t="s">
         <v>23</v>
@@ -7880,10 +7913,10 @@
     </row>
     <row r="209" spans="1:10" ht="18" customHeight="1">
       <c r="A209" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C209" s="15" t="s">
         <v>23</v>
@@ -7892,7 +7925,7 @@
         <v>23</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F209" s="16" t="s">
         <v>23</v>
@@ -7912,10 +7945,10 @@
     </row>
     <row r="210" spans="1:10" ht="18" customHeight="1">
       <c r="A210" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C210" s="15" t="s">
         <v>23</v>
@@ -7942,7 +7975,7 @@
         <v>23</v>
       </c>
       <c r="E211" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F211" s="18" t="s">
         <v>23</v>
@@ -7962,7 +7995,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>23</v>
@@ -7980,7 +8013,7 @@
         <v>23</v>
       </c>
       <c r="G212" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H212" s="15" t="s">
         <v>23</v>
@@ -7994,7 +8027,7 @@
     </row>
     <row r="213" spans="1:10" ht="18" customHeight="1">
       <c r="A213" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>21</v>
@@ -8012,7 +8045,7 @@
         <v>23</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H213" s="16" t="s">
         <v>23</v>
@@ -8026,10 +8059,10 @@
     </row>
     <row r="214" spans="1:10" ht="18" customHeight="1">
       <c r="A214" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>23</v>
@@ -8062,7 +8095,7 @@
         <v>23</v>
       </c>
       <c r="G215" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H215" s="18" t="s">
         <v>23</v>
@@ -8076,7 +8109,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B216" s="15" t="s">
         <v>23</v>
@@ -8085,10 +8118,10 @@
         <v>23</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="E216" s="15" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F216" s="15" t="s">
         <v>23</v>
@@ -8103,24 +8136,24 @@
         <v>23</v>
       </c>
       <c r="J216" s="15" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="18" customHeight="1">
       <c r="A217" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="F217" s="16" t="s">
         <v>23</v>
@@ -8135,12 +8168,12 @@
         <v>23</v>
       </c>
       <c r="J217" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="18" customHeight="1">
       <c r="A218" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>8</v>
@@ -8167,10 +8200,10 @@
         <v>23</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E219" s="18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F219" s="18" t="s">
         <v>23</v>
@@ -8185,12 +8218,12 @@
         <v>23</v>
       </c>
       <c r="J219" s="18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B220" s="15" t="s">
         <v>23</v>
@@ -8199,62 +8232,62 @@
         <v>23</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="E220" s="15" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="F220" s="15" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="H220" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I220" s="15" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="J220" s="15" t="s">
-        <v>43</v>
+        <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="18" customHeight="1">
       <c r="A221" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C221" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F221" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G221" s="16" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="H221" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I221" s="16" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="J221" s="16" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="18" customHeight="1">
       <c r="A222" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>8</v>
@@ -8281,30 +8314,30 @@
         <v>23</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E223" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G223" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H223" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I223" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J223" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="224" spans="1:10">
       <c r="A224" s="14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B224" s="15" t="s">
         <v>23</v>
@@ -8313,22 +8346,22 @@
         <v>23</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E224" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F224" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H224" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I224" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J224" s="15" t="s">
         <v>23</v>
@@ -8336,31 +8369,31 @@
     </row>
     <row r="225" spans="1:10" ht="18" customHeight="1">
       <c r="A225" s="14" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C225" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F225" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G225" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H225" s="16" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I225" s="16" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="J225" s="16" t="s">
         <v>23</v>
@@ -8368,10 +8401,10 @@
     </row>
     <row r="226" spans="1:10" ht="18" customHeight="1">
       <c r="A226" s="14" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C226" s="15" t="s">
         <v>23</v>
@@ -8395,22 +8428,22 @@
         <v>23</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E227" s="18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F227" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G227" s="18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I227" s="18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J227" s="18" t="s">
         <v>23</v>
@@ -8418,7 +8451,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" s="14" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B228" s="15" t="s">
         <v>23</v>
@@ -8427,10 +8460,10 @@
         <v>23</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E228" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F228" s="15" t="s">
         <v>23</v>
@@ -8442,27 +8475,27 @@
         <v>21</v>
       </c>
       <c r="I228" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J228" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="18" customHeight="1">
       <c r="A229" s="14" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C229" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D229" s="16" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F229" s="16" t="s">
         <v>23</v>
@@ -8471,18 +8504,18 @@
         <v>23</v>
       </c>
       <c r="H229" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I229" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J229" s="16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="18" customHeight="1">
       <c r="A230" s="14" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B230" s="15" t="s">
         <v>8</v>
@@ -8509,10 +8542,10 @@
         <v>23</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E231" s="18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F231" s="18" t="s">
         <v>23</v>
@@ -8521,18 +8554,18 @@
         <v>23</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I231" s="18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J231" s="18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="14" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B232" s="15" t="s">
         <v>23</v>
@@ -8541,22 +8574,22 @@
         <v>23</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="E232" s="15" t="s">
-        <v>380</v>
+        <v>63</v>
       </c>
       <c r="F232" s="15" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="G232" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H232" s="15" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="I232" s="15" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="J232" s="15" t="s">
         <v>23</v>
@@ -8564,28 +8597,31 @@
     </row>
     <row r="233" spans="1:10" ht="18" customHeight="1">
       <c r="A233" s="14" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C233" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D233" s="16" t="s">
-        <v>379</v>
+        <v>116</v>
+      </c>
+      <c r="E233" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="F233" s="16" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H233" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I233" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J233" s="16" t="s">
         <v>23</v>
@@ -8593,15 +8629,16 @@
     </row>
     <row r="234" spans="1:10" ht="18" customHeight="1">
       <c r="A234" s="14" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D234" s="16"/>
+      <c r="E234" s="16"/>
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
       <c r="H234" s="16"/>
@@ -8619,22 +8656,22 @@
         <v>23</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E235" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G235" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I235" s="18" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J235" s="18" t="s">
         <v>23</v>
@@ -8642,7 +8679,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B236" s="15" t="s">
         <v>23</v>
@@ -8674,7 +8711,7 @@
     </row>
     <row r="237" spans="1:10" ht="18" customHeight="1">
       <c r="A237" s="14" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B237" s="15" t="s">
         <v>21</v>
@@ -8692,7 +8729,7 @@
         <v>23</v>
       </c>
       <c r="G237" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H237" s="16" t="s">
         <v>23</v>
@@ -8706,7 +8743,7 @@
     </row>
     <row r="238" spans="1:10" ht="18" customHeight="1">
       <c r="A238" s="14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B238" s="15" t="s">
         <v>26</v>
@@ -8742,7 +8779,7 @@
         <v>23</v>
       </c>
       <c r="G239" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H239" s="18" t="s">
         <v>23</v>
@@ -8756,7 +8793,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B240" s="15" t="s">
         <v>23</v>
@@ -8765,16 +8802,16 @@
         <v>23</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="E240" s="15" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="F240" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G240" s="15" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="H240" s="15" t="s">
         <v>23</v>
@@ -8788,25 +8825,25 @@
     </row>
     <row r="241" spans="1:10" ht="18" customHeight="1">
       <c r="A241" s="14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C241" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>388</v>
+        <v>116</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>379</v>
+        <v>116</v>
       </c>
       <c r="F241" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G241" s="16" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="H241" s="16" t="s">
         <v>23</v>
@@ -8820,7 +8857,7 @@
     </row>
     <row r="242" spans="1:10" ht="18" customHeight="1">
       <c r="A242" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B242" s="15" t="s">
         <v>8</v>
@@ -8847,16 +8884,16 @@
         <v>23</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E243" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G243" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H243" s="18" t="s">
         <v>23</v>
@@ -8870,7 +8907,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B244" s="15" t="s">
         <v>23</v>
@@ -8882,13 +8919,13 @@
         <v>23</v>
       </c>
       <c r="E244" s="15" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="F244" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G244" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H244" s="15" t="s">
         <v>23</v>
@@ -8902,10 +8939,10 @@
     </row>
     <row r="245" spans="1:10" ht="18" customHeight="1">
       <c r="A245" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C245" s="15" t="s">
         <v>23</v>
@@ -8914,13 +8951,13 @@
         <v>23</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="F245" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G245" s="16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H245" s="16" t="s">
         <v>23</v>
@@ -8934,7 +8971,7 @@
     </row>
     <row r="246" spans="1:10" ht="18" customHeight="1">
       <c r="A246" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B246" s="15" t="s">
         <v>8</v>
@@ -8964,7 +9001,7 @@
         <v>23</v>
       </c>
       <c r="E247" s="18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F247" s="18" t="s">
         <v>23</v>
@@ -8984,7 +9021,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B248" s="15" t="s">
         <v>23</v>
@@ -8996,10 +9033,10 @@
         <v>21</v>
       </c>
       <c r="E248" s="15" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="F248" s="15" t="s">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="G248" s="15" t="s">
         <v>23</v>
@@ -9008,27 +9045,27 @@
         <v>23</v>
       </c>
       <c r="I248" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J248" s="15" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="18" customHeight="1">
       <c r="A249" s="14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C249" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D249" s="16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>343</v>
+        <v>116</v>
       </c>
       <c r="F249" s="16" t="s">
         <v>25</v>
@@ -9040,18 +9077,18 @@
         <v>23</v>
       </c>
       <c r="I249" s="16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J249" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="18" customHeight="1">
       <c r="A250" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>23</v>
@@ -9075,13 +9112,13 @@
         <v>23</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E251" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F251" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G251" s="18" t="s">
         <v>23</v>
@@ -9090,15 +9127,15 @@
         <v>23</v>
       </c>
       <c r="I251" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J251" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="14" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B252" s="15" t="s">
         <v>23</v>
@@ -9110,19 +9147,19 @@
         <v>23</v>
       </c>
       <c r="E252" s="15" t="s">
-        <v>43</v>
+        <v>321</v>
       </c>
       <c r="F252" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G252" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H252" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I252" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J252" s="15" t="s">
         <v>23</v>
@@ -9130,10 +9167,10 @@
     </row>
     <row r="253" spans="1:10" ht="18" customHeight="1">
       <c r="A253" s="14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C253" s="15" t="s">
         <v>23</v>
@@ -9142,19 +9179,19 @@
         <v>23</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G253" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H253" s="16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I253" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J253" s="16" t="s">
         <v>23</v>
@@ -9162,10 +9199,10 @@
     </row>
     <row r="254" spans="1:10" ht="18" customHeight="1">
       <c r="A254" s="14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C254" s="15" t="s">
         <v>23</v>
@@ -9192,19 +9229,19 @@
         <v>23</v>
       </c>
       <c r="E255" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G255" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I255" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J255" s="18" t="s">
         <v>23</v>
@@ -9212,7 +9249,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B256" s="15" t="s">
         <v>23</v>
@@ -9227,10 +9264,10 @@
         <v>23</v>
       </c>
       <c r="F256" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G256" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H256" s="15" t="s">
         <v>23</v>
@@ -9244,10 +9281,10 @@
     </row>
     <row r="257" spans="1:10" ht="18" customHeight="1">
       <c r="A257" s="14" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C257" s="15" t="s">
         <v>23</v>
@@ -9259,10 +9296,10 @@
         <v>23</v>
       </c>
       <c r="F257" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G257" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H257" s="16" t="s">
         <v>23</v>
@@ -9276,7 +9313,7 @@
     </row>
     <row r="258" spans="1:10" ht="18" customHeight="1">
       <c r="A258" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B258" s="15" t="s">
         <v>8</v>
@@ -9309,10 +9346,10 @@
         <v>23</v>
       </c>
       <c r="F259" s="18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G259" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H259" s="18" t="s">
         <v>23</v>
@@ -9326,7 +9363,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" s="14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B260" s="15" t="s">
         <v>23</v>
@@ -9335,62 +9372,62 @@
         <v>23</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E260" s="15" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="F260" s="15" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="G260" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H260" s="15" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="I260" s="15" t="s">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="J260" s="15" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="18" customHeight="1">
       <c r="A261" s="14" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C261" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>344</v>
+        <v>116</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="F261" s="16" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H261" s="16" t="s">
-        <v>278</v>
+        <v>116</v>
       </c>
       <c r="I261" s="16" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
       <c r="J261" s="16" t="s">
-        <v>344</v>
+        <v>116</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="18" customHeight="1">
       <c r="A262" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B262" s="15" t="s">
         <v>8</v>
@@ -9417,30 +9454,30 @@
         <v>23</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E263" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G263" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H263" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I263" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J263" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" s="14" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B264" s="15" t="s">
         <v>23</v>
@@ -9455,7 +9492,7 @@
         <v>23</v>
       </c>
       <c r="F264" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G264" s="15" t="s">
         <v>23</v>
@@ -9472,10 +9509,10 @@
     </row>
     <row r="265" spans="1:10" ht="18" customHeight="1">
       <c r="A265" s="14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C265" s="15" t="s">
         <v>23</v>
@@ -9487,7 +9524,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G265" s="16" t="s">
         <v>23</v>
@@ -9504,10 +9541,10 @@
     </row>
     <row r="266" spans="1:10" ht="18" customHeight="1">
       <c r="A266" s="14" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>23</v>
@@ -9537,7 +9574,7 @@
         <v>23</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G267" s="18" t="s">
         <v>23</v>
@@ -9554,7 +9591,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="14" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B268" s="15" t="s">
         <v>23</v>
@@ -9578,24 +9615,24 @@
         <v>23</v>
       </c>
       <c r="I268" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J268" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="18" customHeight="1">
       <c r="A269" s="14" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C269" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D269" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E269" s="16" t="s">
         <v>23</v>
@@ -9610,15 +9647,15 @@
         <v>23</v>
       </c>
       <c r="I269" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J269" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="18" customHeight="1">
       <c r="A270" s="14" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B270" s="15" t="s">
         <v>8</v>
@@ -9645,7 +9682,7 @@
         <v>23</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E271" s="18" t="s">
         <v>23</v>
@@ -9660,15 +9697,15 @@
         <v>23</v>
       </c>
       <c r="I271" s="18" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J271" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="14" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B272" s="15" t="s">
         <v>23</v>
@@ -9677,7 +9714,7 @@
         <v>23</v>
       </c>
       <c r="D272" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E272" s="15" t="s">
         <v>23</v>
@@ -9689,10 +9726,10 @@
         <v>21</v>
       </c>
       <c r="H272" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I272" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J272" s="15" t="s">
         <v>23</v>
@@ -9700,16 +9737,16 @@
     </row>
     <row r="273" spans="1:10" ht="18" customHeight="1">
       <c r="A273" s="14" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D273" s="16" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E273" s="16" t="s">
         <v>23</v>
@@ -9718,13 +9755,13 @@
         <v>23</v>
       </c>
       <c r="G273" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H273" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I273" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J273" s="16" t="s">
         <v>23</v>
@@ -9732,10 +9769,10 @@
     </row>
     <row r="274" spans="1:10" ht="18" customHeight="1">
       <c r="A274" s="14" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C274" s="15" t="s">
         <v>23</v>
@@ -9759,7 +9796,7 @@
         <v>23</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E275" s="18" t="s">
         <v>23</v>
@@ -9768,13 +9805,13 @@
         <v>23</v>
       </c>
       <c r="G275" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H275" s="18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I275" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J275" s="18" t="s">
         <v>23</v>
@@ -9782,7 +9819,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="14" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B276" s="15" t="s">
         <v>23</v>
@@ -9797,7 +9834,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="15" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="G276" s="15" t="s">
         <v>23</v>
@@ -9806,30 +9843,30 @@
         <v>23</v>
       </c>
       <c r="I276" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J276" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="18" customHeight="1">
       <c r="A277" s="14" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E277" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F277" s="16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G277" s="16" t="s">
         <v>23</v>
@@ -9838,15 +9875,15 @@
         <v>23</v>
       </c>
       <c r="I277" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="18" customHeight="1">
       <c r="A278" s="14" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B278" s="15" t="s">
         <v>8</v>
@@ -9873,13 +9910,13 @@
         <v>23</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E279" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F279" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G279" s="18" t="s">
         <v>23</v>
@@ -9888,15 +9925,15 @@
         <v>23</v>
       </c>
       <c r="I279" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J279" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="14" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B280" s="15" t="s">
         <v>23</v>
@@ -9905,30 +9942,30 @@
         <v>23</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E280" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F280" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G280" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H280" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I280" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J280" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="18" customHeight="1">
       <c r="A281" s="14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B281" s="15" t="s">
         <v>21</v>
@@ -9937,33 +9974,33 @@
         <v>23</v>
       </c>
       <c r="D281" s="16" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E281" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F281" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G281" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H281" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I281" s="16" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J281" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="18" customHeight="1">
       <c r="A282" s="14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C282" s="15" t="s">
         <v>23</v>
@@ -9987,30 +10024,30 @@
         <v>23</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E283" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F283" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G283" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H283" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I283" s="18" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J283" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="14" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B284" s="15" t="s">
         <v>23</v>
@@ -10019,62 +10056,62 @@
         <v>23</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E284" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F284" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G284" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H284" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I284" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J284" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="18" customHeight="1">
       <c r="A285" s="14" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C285" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F285" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G285" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H285" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I285" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J285" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="18" customHeight="1">
       <c r="A286" s="14" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B286" s="15" t="s">
         <v>8</v>
@@ -10101,30 +10138,30 @@
         <v>23</v>
       </c>
       <c r="D287" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E287" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F287" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G287" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H287" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I287" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J287" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="288" spans="1:10">
       <c r="A288" s="14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B288" s="15" t="s">
         <v>23</v>
@@ -10133,65 +10170,65 @@
         <v>23</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E288" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F288" s="15" t="s">
-        <v>35</v>
+        <v>435</v>
       </c>
       <c r="G288" s="15" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="H288" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="J288" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="18" customHeight="1">
       <c r="A289" s="14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C289" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D289" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E289" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F289" s="16" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
       <c r="G289" s="16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H289" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I289" s="16" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
       <c r="J289" s="16" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="18" customHeight="1">
       <c r="A290" s="14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C290" s="15" t="s">
         <v>23</v>
@@ -10215,30 +10252,30 @@
         <v>23</v>
       </c>
       <c r="D291" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E291" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F291" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G291" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H291" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I291" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J291" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="292" spans="1:10">
       <c r="A292" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B292" s="15" t="s">
         <v>23</v>
@@ -10247,62 +10284,62 @@
         <v>23</v>
       </c>
       <c r="D292" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E292" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F292" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G292" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H292" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I292" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F292" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G292" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H292" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I292" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="J292" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="18" customHeight="1">
       <c r="A293" s="14" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C293" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F293" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G293" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H293" s="16" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I293" s="16" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J293" s="16" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="18" customHeight="1">
       <c r="A294" s="14" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B294" s="15" t="s">
         <v>8</v>
@@ -10329,30 +10366,30 @@
         <v>23</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E295" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G295" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H295" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I295" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J295" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="296" spans="1:10">
       <c r="A296" s="14" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B296" s="15" t="s">
         <v>23</v>
@@ -10367,59 +10404,59 @@
         <v>23</v>
       </c>
       <c r="F296" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G296" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H296" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J296" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="18" customHeight="1">
       <c r="A297" s="14" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C297" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E297" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F297" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G297" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H297" s="16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I297" s="16" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J297" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="18" customHeight="1">
       <c r="A298" s="14" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C298" s="15" t="s">
         <v>23</v>
@@ -10443,30 +10480,30 @@
         <v>23</v>
       </c>
       <c r="D299" s="18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E299" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G299" s="18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H299" s="18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I299" s="18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J299" s="18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="14" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B300" s="15" t="s">
         <v>23</v>
@@ -10475,10 +10512,10 @@
         <v>23</v>
       </c>
       <c r="D300" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E300" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F300" s="15" t="s">
         <v>23</v>
@@ -10490,27 +10527,27 @@
         <v>21</v>
       </c>
       <c r="I300" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J300" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="18" customHeight="1">
       <c r="A301" s="14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C301" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F301" s="16" t="s">
         <v>23</v>
@@ -10519,21 +10556,21 @@
         <v>23</v>
       </c>
       <c r="H301" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I301" s="16" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J301" s="16" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="18" customHeight="1">
       <c r="A302" s="14" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C302" s="15" t="s">
         <v>23</v>
@@ -10557,10 +10594,10 @@
         <v>23</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E303" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F303" s="18" t="s">
         <v>23</v>
@@ -10569,18 +10606,18 @@
         <v>23</v>
       </c>
       <c r="H303" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I303" s="18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J303" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="14" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B304" s="15" t="s">
         <v>23</v>
@@ -10589,13 +10626,13 @@
         <v>23</v>
       </c>
       <c r="D304" s="15" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E304" s="15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F304" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G304" s="15" t="s">
         <v>23</v>
@@ -10604,30 +10641,30 @@
         <v>23</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="J304" s="15" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="18" customHeight="1">
       <c r="A305" s="14" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C305" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D305" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G305" s="16" t="s">
         <v>23</v>
@@ -10636,18 +10673,18 @@
         <v>23</v>
       </c>
       <c r="I305" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J305" s="16" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="18" customHeight="1">
       <c r="A306" s="14" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C306" s="15" t="s">
         <v>23</v>
@@ -10671,13 +10708,13 @@
         <v>23</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E307" s="18" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F307" s="18" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G307" s="18" t="s">
         <v>23</v>
@@ -10686,15 +10723,15 @@
         <v>23</v>
       </c>
       <c r="I307" s="18" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J307" s="18" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="14" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B308" s="15" t="s">
         <v>23</v>
@@ -10703,10 +10740,10 @@
         <v>23</v>
       </c>
       <c r="D308" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E308" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F308" s="15" t="s">
         <v>23</v>
@@ -10718,27 +10755,27 @@
         <v>23</v>
       </c>
       <c r="I308" s="15" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="J308" s="15" t="s">
-        <v>21</v>
+        <v>300</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="18" customHeight="1">
       <c r="A309" s="14" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F309" s="16" t="s">
         <v>23</v>
@@ -10750,15 +10787,15 @@
         <v>23</v>
       </c>
       <c r="I309" s="16" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="J309" s="16" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="18" customHeight="1">
       <c r="A310" s="14" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B310" s="15" t="s">
         <v>8</v>
@@ -10785,10 +10822,10 @@
         <v>23</v>
       </c>
       <c r="D311" s="18" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E311" s="18" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F311" s="18" t="s">
         <v>23</v>
@@ -10800,15 +10837,15 @@
         <v>23</v>
       </c>
       <c r="I311" s="18" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J311" s="18" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="14" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B312" s="15" t="s">
         <v>23</v>
@@ -10817,68 +10854,72 @@
         <v>23</v>
       </c>
       <c r="D312" s="15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E312" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F312" s="15" t="s">
-        <v>459</v>
+        <v>54</v>
       </c>
       <c r="G312" s="15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H312" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I312" s="15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J312" s="15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="18" customHeight="1">
       <c r="A313" s="14" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>456</v>
+        <v>62</v>
       </c>
       <c r="C313" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D313" s="16" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E313" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="F313" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="G313" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H313" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I313" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J313" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="18" customHeight="1">
       <c r="A314" s="14" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C314" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D314" s="16"/>
       <c r="E314" s="16"/>
+      <c r="F314" s="16"/>
       <c r="G314" s="16"/>
       <c r="H314" s="16"/>
       <c r="I314" s="16"/>
@@ -10895,30 +10936,30 @@
         <v>23</v>
       </c>
       <c r="D315" s="18" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E315" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F315" s="18" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G315" s="18" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H315" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I315" s="18" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J315" s="18" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B316" s="15" t="s">
         <v>23</v>
@@ -10927,65 +10968,65 @@
         <v>23</v>
       </c>
       <c r="D316" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E316" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F316" s="15" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="G316" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H316" s="15" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="I316" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J316" s="15" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="18" customHeight="1">
       <c r="A317" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C317" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D317" s="16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E317" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F317" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G317" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H317" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I317" s="16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J317" s="16" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="18" customHeight="1">
       <c r="A318" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C318" s="15" t="s">
         <v>23</v>
@@ -11009,30 +11050,30 @@
         <v>23</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E319" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F319" s="18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G319" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H319" s="18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I319" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J319" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B320" s="15" t="s">
         <v>23</v>
@@ -11050,7 +11091,7 @@
         <v>23</v>
       </c>
       <c r="G320" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H320" s="15" t="s">
         <v>23</v>
@@ -11059,15 +11100,15 @@
         <v>23</v>
       </c>
       <c r="J320" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="18" customHeight="1">
       <c r="A321" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C321" s="15" t="s">
         <v>23</v>
@@ -11082,7 +11123,7 @@
         <v>23</v>
       </c>
       <c r="G321" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H321" s="16" t="s">
         <v>23</v>
@@ -11091,15 +11132,15 @@
         <v>23</v>
       </c>
       <c r="J321" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="18" customHeight="1">
       <c r="A322" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C322" s="15" t="s">
         <v>23</v>
@@ -11132,7 +11173,7 @@
         <v>23</v>
       </c>
       <c r="G323" s="18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H323" s="18" t="s">
         <v>23</v>
@@ -11141,12 +11182,12 @@
         <v>23</v>
       </c>
       <c r="J323" s="18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B324" s="15" t="s">
         <v>23</v>
@@ -11158,10 +11199,10 @@
         <v>23</v>
       </c>
       <c r="E324" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F324" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G324" s="15" t="s">
         <v>21</v>
@@ -11170,18 +11211,18 @@
         <v>21</v>
       </c>
       <c r="I324" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J324" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="18" customHeight="1">
       <c r="A325" s="14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C325" s="15" t="s">
         <v>23</v>
@@ -11190,27 +11231,27 @@
         <v>23</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F325" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G325" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H325" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="I325" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="J325" s="16" t="s">
         <v>306</v>
-      </c>
-      <c r="G325" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H325" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="I325" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="J325" s="16" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="18" customHeight="1">
       <c r="A326" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B326" s="15" t="s">
         <v>8</v>
@@ -11240,27 +11281,27 @@
         <v>23</v>
       </c>
       <c r="E327" s="18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F327" s="18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G327" s="18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H327" s="18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I327" s="18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="J327" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B328" s="15" t="s">
         <v>23</v>
@@ -11269,7 +11310,7 @@
         <v>23</v>
       </c>
       <c r="D328" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E328" s="15" t="s">
         <v>23</v>
@@ -11281,27 +11322,27 @@
         <v>21</v>
       </c>
       <c r="H328" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J328" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="18" customHeight="1">
       <c r="A329" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C329" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D329" s="16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E329" s="16" t="s">
         <v>23</v>
@@ -11310,24 +11351,24 @@
         <v>23</v>
       </c>
       <c r="G329" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H329" s="16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I329" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J329" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="18" customHeight="1">
       <c r="A330" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C330" s="15" t="s">
         <v>23</v>
@@ -11351,7 +11392,7 @@
         <v>23</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E331" s="18" t="s">
         <v>23</v>
@@ -11360,21 +11401,21 @@
         <v>23</v>
       </c>
       <c r="G331" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H331" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I331" s="18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J331" s="18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="14" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B332" s="15" t="s">
         <v>23</v>
@@ -11383,7 +11424,7 @@
         <v>23</v>
       </c>
       <c r="D332" s="15" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E332" s="15" t="s">
         <v>23</v>
@@ -11406,16 +11447,16 @@
     </row>
     <row r="333" spans="1:10" ht="18" customHeight="1">
       <c r="A333" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C333" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D333" s="16" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E333" s="16" t="s">
         <v>23</v>
@@ -11438,7 +11479,7 @@
     </row>
     <row r="334" spans="1:10" ht="18" customHeight="1">
       <c r="A334" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B334" s="15" t="s">
         <v>8</v>
@@ -11465,7 +11506,7 @@
         <v>23</v>
       </c>
       <c r="D335" s="18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E335" s="18" t="s">
         <v>23</v>
@@ -11488,7 +11529,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B336" s="15" t="s">
         <v>23</v>
@@ -11506,30 +11547,30 @@
         <v>23</v>
       </c>
       <c r="G336" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H336" s="15" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="J336" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="18" customHeight="1">
       <c r="A337" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C337" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E337" s="16" t="s">
         <v>23</v>
@@ -11538,24 +11579,24 @@
         <v>23</v>
       </c>
       <c r="G337" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H337" s="16" t="s">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="I337" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J337" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="18" customHeight="1">
       <c r="A338" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C338" s="15" t="s">
         <v>23</v>
@@ -11579,7 +11620,7 @@
         <v>23</v>
       </c>
       <c r="D339" s="18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E339" s="18" t="s">
         <v>23</v>
@@ -11588,21 +11629,21 @@
         <v>23</v>
       </c>
       <c r="G339" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H339" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I339" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J339" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="340" spans="1:10">
       <c r="A340" s="14" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B340" s="15" t="s">
         <v>23</v>
@@ -11611,22 +11652,22 @@
         <v>23</v>
       </c>
       <c r="D340" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E340" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F340" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G340" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H340" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I340" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="G340" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H340" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I340" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="J340" s="15" t="s">
         <v>23</v>
@@ -11634,31 +11675,31 @@
     </row>
     <row r="341" spans="1:10" ht="18" customHeight="1">
       <c r="A341" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C341" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D341" s="16" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E341" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F341" s="16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G341" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H341" s="16" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="I341" s="16" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J341" s="16" t="s">
         <v>23</v>
@@ -11666,10 +11707,10 @@
     </row>
     <row r="342" spans="1:10" ht="18" customHeight="1">
       <c r="A342" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C342" s="15" t="s">
         <v>23</v>
@@ -11693,29 +11734,29 @@
         <v>23</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E343" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F343" s="18" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G343" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H343" s="18" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I343" s="18" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J343" s="18" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="599">
+  <mergeCells count="601">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -12122,6 +12163,7 @@
     <mergeCell ref="I229:I230"/>
     <mergeCell ref="J229:J230"/>
     <mergeCell ref="D233:D234"/>
+    <mergeCell ref="E233:E234"/>
     <mergeCell ref="F233:F234"/>
     <mergeCell ref="G233:G234"/>
     <mergeCell ref="H233:H234"/>
@@ -12262,6 +12304,7 @@
     <mergeCell ref="J309:J310"/>
     <mergeCell ref="D313:D314"/>
     <mergeCell ref="E313:E314"/>
+    <mergeCell ref="F313:F314"/>
     <mergeCell ref="G313:G314"/>
     <mergeCell ref="H313:H314"/>
     <mergeCell ref="I313:I314"/>
@@ -12316,6 +12359,16 @@
     <mergeCell ref="I341:I342"/>
     <mergeCell ref="J341:J342"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.04" right="0.04" top="0.15" bottom="0.15" header="0.3" footer="0.3"/>
+  <rowBreaks count="8" manualBreakCount="8">
+    <brk id="47" max="16383" man="1"/>
+    <brk id="91" max="16383" man="1"/>
+    <brk id="135" max="16383" man="1"/>
+    <brk id="179" max="16383" man="1"/>
+    <brk id="223" max="16383" man="1"/>
+    <brk id="267" max="16383" man="1"/>
+    <brk id="311" max="16383" man="1"/>
+    <brk id="355" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>